--- a/data/ind_pivot.xlsx
+++ b/data/ind_pivot.xlsx
@@ -463,8 +463,10 @@
           <t>Purhased a Silver Table</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1244</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[1244.0]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -501,8 +503,10 @@
           <t>Purchased 2 tickets, credit card fees - wants to sit with Angie Kelleher</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>128.98</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[128.98]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -539,8 +543,10 @@
           <t>April 2019 Rent</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>450</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[450.0]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -555,8 +561,10 @@
           <t>May 2019 Rent</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>450</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[450.0]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -593,8 +601,10 @@
           <t xml:space="preserve">Dining set with chairs; Recliner; Kitchen table with bench. </t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>550</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[550.0]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -631,8 +641,10 @@
           <t xml:space="preserve">Purchased 2 tickets using STAFF discount code </t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>44.76</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[44.76]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -670,8 +682,10 @@
 $871 - additional contrubition</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>3000</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[3000.0]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -700,8 +714,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 1 ticket  (to be given to a FP Guest)</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>35</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[35.0]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -738,8 +754,10 @@
           <t>Purchased a Silver Table using PROMO code plus credit card fees. SOMA Communities of Spokane</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>644.09</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[644.09]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -772,8 +790,10 @@
           <t>purchased two tickets plus credit card fees</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>128.98</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[128.98]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -810,8 +830,10 @@
           <t>4T/5T Pull-ups</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>200</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -848,8 +870,10 @@
           <t>Purchased a Silver Table (using PROMO discount code)</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>622</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -879,8 +903,10 @@
           <t>Annual Appeal 2018</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>200</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -917,8 +943,10 @@
           <t>Full turkey dinner, food, toothbrush</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>250</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[250.0]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -955,8 +983,10 @@
           <t>Diapers, formula, rice cereal, oatmeal, backpack, nail polish</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>60</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[60.0]</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -971,8 +1001,10 @@
           <t>baby food, bottle liners, snacks</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>30</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[30.0]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1009,8 +1041,10 @@
           <t xml:space="preserve">6 piece Ethan Allen Bedroom Set; 2 book cases; King comforter set, blankets and comforter. </t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>605</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[605.0]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1047,8 +1081,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>30</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[30.0]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1081,8 +1117,10 @@
           <t xml:space="preserve">Funds restricted to kids crew, however, donor said funds could be used wherever most needed. </t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>50</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1097,8 +1135,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 3 tickets</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>105</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[105.0]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1123,8 +1163,10 @@
           <t>Paddle Raise</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>277</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[277.0]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1161,8 +1203,10 @@
           <t>Fishing for Families 2019</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>50</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1199,8 +1243,10 @@
           <t>Adjustable electric bed, full size with frame (made by Bob &amp; Terry Ratts)</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>1000</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[1000.0]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1237,8 +1283,10 @@
           <t>Annual Appeal 2019 - made on behalf of Lee &amp; Jollie Carlson</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>100</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1275,8 +1323,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 2 ticket </t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>70</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1314,8 +1364,10 @@
           <t>Annual Appeal 2018</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>50</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1352,8 +1404,10 @@
           <t>Annual Donation</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>400</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[400.0]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1390,8 +1444,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>20</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[20.0]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1428,8 +1484,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>100</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1466,8 +1524,10 @@
           <t>Septermber 2019 Rent</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>400</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[400.0]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1504,8 +1564,10 @@
           <t>April 2019 Rent</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>400</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[400.0]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1542,8 +1604,10 @@
           <t>April 2019 Rent</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>700</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[200.0, 500.0]</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1572,8 +1636,10 @@
           <t>May 2019 Rent (pt. 1)</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>200</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1588,8 +1654,10 @@
           <t>May 2019 Rent (pt. 2)</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>500</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1626,8 +1694,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 3 tickets - to be given to FP guests</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>105</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[105.0]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1664,8 +1734,10 @@
           <t>Dresser and night stand</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>100</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1698,8 +1770,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 2 ticket </t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>75</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[75.0]</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1732,8 +1806,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>100</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1770,8 +1846,10 @@
           <t>Fishing for Families Fundraiser 2019</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>500</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1808,8 +1886,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>300</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[300.0]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1842,8 +1922,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>25</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1880,8 +1962,10 @@
           <t>Paddle Raise</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>51</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[51.0]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1919,8 +2003,10 @@
           <t>Annual Appeal 2018</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>1000</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[1000.0]</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1957,8 +2043,10 @@
           <t>Full payment for pledge made at 2019 UnGala Fundraiser</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>561</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[561.0]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1996,8 +2084,10 @@
 $223 - COntribution</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>500</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2034,8 +2124,10 @@
           <t>twin comforter, twin quilt, twin mattress pad</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>75</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[75.0]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2073,8 +2165,10 @@
 Donation made by Connie &amp; Robert Fisher</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>65</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[65.0]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2111,8 +2205,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>25</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2149,8 +2245,10 @@
           <t>Donation made at UnGala 2019</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>175</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[175.0]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2187,8 +2285,10 @@
           <t>Misc. women's clothing</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>120</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[120.0]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2225,8 +2325,10 @@
           <t>2 Dressers</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>200</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2241,8 +2343,10 @@
           <t xml:space="preserve">Bed frame, headboard, foot board, mattress, box spring, 2 dressers, 1 chair, 1 table. </t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>550</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[550.0]</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2275,8 +2379,10 @@
           <t>UnGala 2019 - Monthly Pledge Payment in total</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>561</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[561.0]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2309,8 +2415,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>70</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2347,8 +2455,10 @@
           <t>Purchased two tickets plus credit card fees</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v>128.98</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[128.98]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2385,8 +2495,10 @@
           <t>Purchase 2 Tickets - one for self and one for Dee Ader</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>124.32</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2424,8 +2536,10 @@
           <t>Hats and scarves</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[0.0]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2462,8 +2576,10 @@
           <t>Purchased 7 tickets for Civic Theatre Fundraiser</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v>280</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[280.0]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2500,8 +2616,10 @@
           <t>Foam cups</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>50</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2538,8 +2656,10 @@
           <t>Donations received at UnGala 2019</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v>500</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2576,8 +2696,10 @@
           <t>diapers, playpens, wipes, baby bath</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>200</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2614,8 +2736,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 1 tickets</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v>40</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[40.0]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2652,8 +2776,10 @@
           <t>Paddle Raise</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>51</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[51.0]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2686,8 +2812,10 @@
           <t xml:space="preserve">Purchased 2 tickets </t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>124.32</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2724,8 +2852,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>80</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2762,8 +2892,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>70</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2801,8 +2933,10 @@
 $28 - Additional contribution</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>1000</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[1000.0]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2839,8 +2973,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>500</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2877,8 +3013,10 @@
           <t>Living room furniture set - counch, 2 chairs (made by Greg &amp; Jennifer Sealy)</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v>200</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2915,8 +3053,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 1 ticket </t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>35</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[35.0]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2931,8 +3071,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets (discounted)</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>50</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2965,8 +3107,10 @@
           <t>Dishes - plates, bowls</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>100</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3003,8 +3147,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets (1 discounted)</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v>60</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[60.0]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3041,8 +3187,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>50</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3079,8 +3227,10 @@
           <t>Little deoderants, women's razors, moist wipes, and lotion</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v>45</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[45.0]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3117,8 +3267,10 @@
           <t>To sponsor Village families at Christmas Time</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>100</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3148,8 +3300,10 @@
           <t>Annual Appeal 2018</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>200</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3186,8 +3340,10 @@
           <t>For Summer Kids Activities</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>30</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[30.0]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3224,8 +3380,10 @@
           <t>4 cgildren's winter coats; 1 man's winter coat</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v>100</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3262,8 +3420,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v>25</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3296,8 +3456,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v>50</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3334,8 +3496,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v>100</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3372,8 +3536,10 @@
           <t>Fishing for Families Fundraiser 2019</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v>125</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[125.0]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3410,8 +3576,10 @@
           <t>Purchased a Bronze Table for St. David's Episcopal Church</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v>622</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3448,8 +3616,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v>100</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3486,8 +3656,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v>70</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3524,8 +3696,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 ticket (one student ticket, one adult)</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v>60</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[60.0]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3558,8 +3732,10 @@
           <t>Purchased 2 tickets for UnGala 2019</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v>124.32</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3596,8 +3772,10 @@
           <t>80 bananas, 40 carrots</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v>60</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[60.0]</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3634,8 +3812,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v>100</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3668,8 +3848,10 @@
           <t>Fishing for Families 2019</t>
         </is>
       </c>
-      <c r="H92" t="n">
-        <v>25</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3706,8 +3888,10 @@
           <t>Couch (sleeper sofa), Couch (with 2 reclining ends)</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v>250</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[250.0]</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -3744,8 +3928,10 @@
           <t>2 tickets</t>
         </is>
       </c>
-      <c r="H94" t="n">
-        <v>124</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[124.0]</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3782,8 +3968,10 @@
           <t>Ticket for Heather Ader</t>
         </is>
       </c>
-      <c r="H95" t="n">
-        <v>40</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[40.0]</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3820,8 +4008,10 @@
           <t>Blankets and sheets of miscellaneous sizes and colors</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v>100</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3858,8 +4048,10 @@
           <t>Fishing for Families Fundraiser 2019</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v>200</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[100.0, 100.0]</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -3892,8 +4084,10 @@
           <t>10-50 Daily Bus Passes</t>
         </is>
       </c>
-      <c r="H98" t="n">
-        <v>201</v>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>[201.0]</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3926,8 +4120,10 @@
           <t xml:space="preserve">50 day bus passes </t>
         </is>
       </c>
-      <c r="H99" t="n">
-        <v>200</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -3960,8 +4156,10 @@
           <t>Purchased a Bronze Table</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>622</v>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -3998,8 +4196,10 @@
           <t>Donation made on top of ticket purchase</t>
         </is>
       </c>
-      <c r="H101" t="n">
-        <v>20</v>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>[20.0]</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4014,8 +4214,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H102" t="n">
-        <v>70</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4052,8 +4254,10 @@
           <t>Donation made at UnGala 2019</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>50</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4090,8 +4294,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H104" t="n">
-        <v>250</v>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>[250.0]</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4128,8 +4334,10 @@
           <t>Purchased a Bronze Table</t>
         </is>
       </c>
-      <c r="H105" t="n">
-        <v>622</v>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4166,8 +4374,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H106" t="n">
-        <v>25</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4204,8 +4414,10 @@
           <t>Donation made on top of ticket purchase</t>
         </is>
       </c>
-      <c r="H107" t="n">
-        <v>20</v>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>[20.0]</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4220,8 +4432,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 3 tickets</t>
         </is>
       </c>
-      <c r="H108" t="n">
-        <v>105</v>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>[105.0]</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4258,8 +4472,10 @@
           <t>twin box spring &amp; mattress, 2 small dressers</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>200</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4296,8 +4512,10 @@
           <t>2019 Fishing for Families Fundraiser</t>
         </is>
       </c>
-      <c r="H110" t="n">
-        <v>50</v>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4334,8 +4552,10 @@
           <t>April 2019 Rent</t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>550</v>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>[550.0]</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -4372,8 +4592,10 @@
           <t>1 new full bed (mattress, box spring); 1 queen bed (mattress, box spring); 2 metal bed frames</t>
         </is>
       </c>
-      <c r="H112" t="n">
-        <v>640</v>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>[640.0]</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -4410,8 +4632,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H113" t="n">
-        <v>50</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -4448,8 +4672,10 @@
           <t>Purchased a single ticket for the 2019 UnGala Fundraiser</t>
         </is>
       </c>
-      <c r="H114" t="n">
-        <v>62.16</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>[62.16]</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -4486,8 +4712,10 @@
           <t>Purchased a Silver Table &amp; credit card fees</t>
         </is>
       </c>
-      <c r="H115" t="n">
-        <v>1287.87</v>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>[1287.87]</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -4524,8 +4752,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 18 tickets</t>
         </is>
       </c>
-      <c r="H116" t="n">
-        <v>630</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>[630.0]</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -4562,8 +4792,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H117" t="n">
-        <v>100</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -4600,8 +4832,10 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="H118" t="n">
-        <v>80</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -4638,8 +4872,10 @@
           <t>Donation made at UnGala 2019</t>
         </is>
       </c>
-      <c r="H119" t="n">
-        <v>25</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -4676,8 +4912,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H120" t="n">
-        <v>80</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -4714,8 +4952,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 3 tickets</t>
         </is>
       </c>
-      <c r="H121" t="n">
-        <v>105</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>[105.0]</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -4752,8 +4992,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H122" t="n">
-        <v>80</v>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -4790,8 +5032,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 4 tickets - to be given to FP guests</t>
         </is>
       </c>
-      <c r="H123" t="n">
-        <v>140</v>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>[140.0]</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -4820,8 +5064,10 @@
           <t>Purchased a Bronze Table</t>
         </is>
       </c>
-      <c r="H124" t="n">
-        <v>622</v>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -4851,8 +5097,10 @@
           <t xml:space="preserve">Starbucks Gift Cards </t>
         </is>
       </c>
-      <c r="H125" t="n">
-        <v>175</v>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>[175.0]</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -4889,8 +5137,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H126" t="n">
-        <v>25</v>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -4919,8 +5169,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H127" t="n">
-        <v>70</v>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -4957,8 +5209,10 @@
           <t xml:space="preserve">Purchased a Bronze Table </t>
         </is>
       </c>
-      <c r="H128" t="n">
-        <v>622</v>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -4995,8 +5249,10 @@
           <t>Purchased 1 ticket. Wants to sit by Jean O'Dell, Sandi Erickson, Joe &amp; Becky Kramarz</t>
         </is>
       </c>
-      <c r="H129" t="n">
-        <v>62.16</v>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>[62.16]</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5011,8 +5267,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 2 ticket </t>
         </is>
       </c>
-      <c r="H130" t="n">
-        <v>80</v>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5049,8 +5307,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 1 ticket</t>
         </is>
       </c>
-      <c r="H131" t="n">
-        <v>35</v>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>[35.0]</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5087,8 +5347,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H132" t="n">
-        <v>500</v>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -5125,8 +5387,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H133" t="n">
-        <v>1000</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>[1000.0]</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -5141,8 +5405,10 @@
           <t>Purchased a Silver Table</t>
         </is>
       </c>
-      <c r="H134" t="n">
-        <v>1244</v>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>[1244.0]</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -5179,8 +5445,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H135" t="n">
-        <v>500</v>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -5213,8 +5481,10 @@
           <t xml:space="preserve">assorted furniture - 2 bikes, basketball hoop and balls,, sofa &amp; love seat, 2 sets (coffee table and end table), kitchen table w/ 3 chairs,  fold-down dining room table w/ 2 chairs, queen bedroom set, twin box spring and mattress, desk w/ chair, 2 computer desks, book shelf, 3 particle board bookshelves, play station and games. </t>
         </is>
       </c>
-      <c r="H136" t="n">
-        <v>1000</v>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>[1000.0]</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -5247,8 +5517,10 @@
           <t>Purchased a Gold Table</t>
         </is>
       </c>
-      <c r="H137" t="n">
-        <v>2486</v>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>[2486.0]</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -5285,8 +5557,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H138" t="n">
-        <v>30</v>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>[30.0]</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -5323,8 +5597,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H139" t="n">
-        <v>100</v>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -5361,8 +5637,10 @@
           <t xml:space="preserve">Donations made in addition to purchasing UnGala tickets </t>
         </is>
       </c>
-      <c r="H140" t="n">
-        <v>100</v>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -5377,8 +5655,10 @@
           <t>Purchased 2 tickets - one for herself and one for Jim Sheehan</t>
         </is>
       </c>
-      <c r="H141" t="n">
-        <v>124.32</v>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -5411,8 +5691,10 @@
           <t>sheets, towels, and dishes</t>
         </is>
       </c>
-      <c r="H142" t="n">
-        <v>100</v>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -5445,8 +5727,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H143" t="n">
-        <v>20</v>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>[20.0]</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -5483,8 +5767,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 5 tickets - to be given to FP guests</t>
         </is>
       </c>
-      <c r="H144" t="n">
-        <v>175</v>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>[175.0]</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -5517,8 +5803,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 3 tickets</t>
         </is>
       </c>
-      <c r="H145" t="n">
-        <v>120</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>[120.0]</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -5551,8 +5839,10 @@
           <t>Metal Frame for a bunk bed</t>
         </is>
       </c>
-      <c r="H146" t="n">
-        <v>300</v>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>[300.0]</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -5589,8 +5879,10 @@
           <t>Purchased a bronze table</t>
         </is>
       </c>
-      <c r="H147" t="n">
-        <v>622</v>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -5627,8 +5919,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 1 ticket </t>
         </is>
       </c>
-      <c r="H148" t="n">
-        <v>35</v>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>[35.0]</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -5661,8 +5955,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H149" t="n">
-        <v>100</v>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -5699,8 +5995,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 4 tickets</t>
         </is>
       </c>
-      <c r="H150" t="n">
-        <v>140</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>[140.0]</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -5737,8 +6035,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 7 tickets</t>
         </is>
       </c>
-      <c r="H151" t="n">
-        <v>245</v>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>[245.0]</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -5775,8 +6075,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H152" t="n">
-        <v>50</v>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -5813,8 +6115,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H153" t="n">
-        <v>100</v>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -5851,8 +6155,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H154" t="n">
-        <v>100</v>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -5889,8 +6195,10 @@
           <t>Fishing for Families 2019</t>
         </is>
       </c>
-      <c r="H155" t="n">
-        <v>500</v>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -5927,8 +6235,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H156" t="n">
-        <v>200</v>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -5965,8 +6275,10 @@
           <t>Donation collected at fundraiser hosted by 16 Cents, 3 Shoes &amp; 5 Socks</t>
         </is>
       </c>
-      <c r="H157" t="n">
-        <v>50</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -6003,8 +6315,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H158" t="n">
-        <v>80</v>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -6041,8 +6355,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H159" t="n">
-        <v>1000</v>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>[1000.0]</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -6079,8 +6395,10 @@
           <t>Fishing for Families Fundraiser 2019</t>
         </is>
       </c>
-      <c r="H160" t="n">
-        <v>300</v>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>[300.0]</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -6113,8 +6431,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H161" t="n">
-        <v>50</v>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -6151,8 +6471,10 @@
           <t>Monthly Payment for pledge made at 2019 UnGala Fundraiser</t>
         </is>
       </c>
-      <c r="H162" t="n">
-        <v>102</v>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>[51.0, 51.0]</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -6167,8 +6489,10 @@
           <t>Purchased 2 tickets</t>
         </is>
       </c>
-      <c r="H163" t="n">
-        <v>124.32</v>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -6183,8 +6507,10 @@
           <t xml:space="preserve">UnGala 2019 Monthly Pledge Payment </t>
         </is>
       </c>
-      <c r="H164" t="n">
-        <v>51</v>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>[51.0]</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -6199,8 +6525,10 @@
           <t xml:space="preserve">UnGala 2019 monthly pledge payment </t>
         </is>
       </c>
-      <c r="H165" t="n">
-        <v>51</v>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>[51.0]</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -6237,8 +6565,10 @@
           <t>2019 UnGala Monthly Plesge Payment</t>
         </is>
       </c>
-      <c r="H166" t="n">
-        <v>51</v>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>[51.0]</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -6253,8 +6583,10 @@
           <t>Monthly Payment for pledge made at 2019 UnGala Fundraiser</t>
         </is>
       </c>
-      <c r="H167" t="n">
-        <v>51</v>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>[51.0]</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -6292,8 +6624,10 @@
 Thank you letter should be addressed to Kailee, Violet, and Charlotte</t>
         </is>
       </c>
-      <c r="H168" t="n">
-        <v>500</v>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -6330,8 +6664,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H169" t="n">
-        <v>100</v>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -6368,8 +6704,10 @@
           <t>Purchased a Bronze Table</t>
         </is>
       </c>
-      <c r="H170" t="n">
-        <v>622</v>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>[622.0]</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -6406,8 +6744,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 5 tickets - to be given to FP guests</t>
         </is>
       </c>
-      <c r="H171" t="n">
-        <v>175</v>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>[175.0]</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -6444,8 +6784,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 4 tickets</t>
         </is>
       </c>
-      <c r="H172" t="n">
-        <v>160</v>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>[160.0]</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -6482,8 +6824,10 @@
           <t>Purchased 2 tickets - one for self and one for Linda Rodin</t>
         </is>
       </c>
-      <c r="H173" t="n">
-        <v>124.32</v>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -6516,8 +6860,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H174" t="n">
-        <v>80</v>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -6554,8 +6900,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 2 ticket </t>
         </is>
       </c>
-      <c r="H175" t="n">
-        <v>70</v>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -6592,8 +6940,10 @@
           <t>Proceeds from Hobbit Hole Fundraiser</t>
         </is>
       </c>
-      <c r="H176" t="n">
-        <v>200</v>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>[200.0]</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -6630,8 +6980,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H177" t="n">
-        <v>350</v>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>[350.0]</t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -6668,8 +7020,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H178" t="n">
-        <v>80</v>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>[80.0]</t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -6698,8 +7052,10 @@
           <t>Purchased a single ticket</t>
         </is>
       </c>
-      <c r="H179" t="n">
-        <v>62.16</v>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>[62.16]</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -6736,8 +7092,10 @@
           <t>Purchased a Bronze Table, credit card fees</t>
         </is>
       </c>
-      <c r="H180" t="n">
-        <v>644.09</v>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>[644.09]</t>
+        </is>
       </c>
     </row>
     <row r="181">
@@ -6774,8 +7132,10 @@
           <t>Purchased 2 tickets</t>
         </is>
       </c>
-      <c r="H181" t="n">
-        <v>124.32</v>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -6813,8 +7173,10 @@
 $14 - Contribution</t>
         </is>
       </c>
-      <c r="H182" t="n">
-        <v>500</v>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>[500.0]</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -6852,8 +7214,10 @@
 Decided to donate household items after seeing a social media post made by intern, Natalie Hittmeier</t>
         </is>
       </c>
-      <c r="H183" t="n">
-        <v>60</v>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>[60.0]</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -6890,8 +7254,10 @@
           <t>Spokane Civic heatre Fundraiser - 4 tickets (2 to be given to FP guests)</t>
         </is>
       </c>
-      <c r="H184" t="n">
-        <v>140</v>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>[140.0]</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -6928,8 +7294,10 @@
           <t>Canned food goods</t>
         </is>
       </c>
-      <c r="H185" t="n">
-        <v>50</v>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -6966,8 +7334,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H186" t="n">
-        <v>100</v>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="187">
@@ -7004,8 +7374,10 @@
           <t>Purchased 1 Ticket.</t>
         </is>
       </c>
-      <c r="H187" t="n">
-        <v>62.16</v>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>[62.16]</t>
+        </is>
       </c>
     </row>
     <row r="188">
@@ -7042,8 +7414,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 2 tickets</t>
         </is>
       </c>
-      <c r="H188" t="n">
-        <v>70</v>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>[70.0]</t>
+        </is>
       </c>
     </row>
     <row r="189">
@@ -7080,8 +7454,10 @@
           <t xml:space="preserve">Fishing for Families 2019 </t>
         </is>
       </c>
-      <c r="H189" t="n">
-        <v>350</v>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>[350.0]</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -7110,8 +7486,10 @@
           <t>Purchased one ticket, and the remainder is contribution income</t>
         </is>
       </c>
-      <c r="H190" t="n">
-        <v>100</v>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -7144,8 +7522,10 @@
           <t xml:space="preserve">Paddle Raise </t>
         </is>
       </c>
-      <c r="H191" t="n">
-        <v>277</v>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>[277.0]</t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -7178,8 +7558,10 @@
           <t>Annual Appeal 2019</t>
         </is>
       </c>
-      <c r="H192" t="n">
-        <v>250</v>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>[250.0]</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -7216,8 +7598,10 @@
           <t>Purchased 2 tickets, credit card fees - wants to sit with Angie Kelleher</t>
         </is>
       </c>
-      <c r="H193" t="n">
-        <v>128.98</v>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>[128.98]</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -7254,8 +7638,10 @@
           <t>Household and office items</t>
         </is>
       </c>
-      <c r="H194" t="n">
-        <v>300</v>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>[300.0]</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -7292,8 +7678,10 @@
           <t>April 2019 Rent</t>
         </is>
       </c>
-      <c r="H195" t="n">
-        <v>487</v>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>[487.0]</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -7330,8 +7718,10 @@
           <t>Purchased two tickets - mentioned that they are with the Covenant UMC Group</t>
         </is>
       </c>
-      <c r="H196" t="n">
-        <v>124.32</v>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>[124.32]</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -7346,8 +7736,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 3 tickets</t>
         </is>
       </c>
-      <c r="H197" t="n">
-        <v>105</v>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>[105.0]</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -7384,8 +7776,10 @@
           <t xml:space="preserve">Spokane Civic Theatre Fundraiser 2019 - 1 ticket </t>
         </is>
       </c>
-      <c r="H198" t="n">
-        <v>35</v>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>[35.0]</t>
+        </is>
       </c>
     </row>
     <row r="199">
@@ -7400,8 +7794,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 1 ticket (discounted)</t>
         </is>
       </c>
-      <c r="H199" t="n">
-        <v>25</v>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="200">
@@ -7438,8 +7834,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H200" t="n">
-        <v>25</v>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>[25.0]</t>
+        </is>
       </c>
     </row>
     <row r="201">
@@ -7476,8 +7874,10 @@
           <t>Spokane Civic Theatre Fundraiser 2019 - 4 tickets</t>
         </is>
       </c>
-      <c r="H201" t="n">
-        <v>160</v>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>[160.0]</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -7514,8 +7914,10 @@
           <t>Toddler Bed</t>
         </is>
       </c>
-      <c r="H202" t="n">
-        <v>100</v>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>[100.0]</t>
+        </is>
       </c>
     </row>
     <row r="203">
@@ -7552,8 +7954,10 @@
           <t>Family Services - Transportation</t>
         </is>
       </c>
-      <c r="H203" t="n">
-        <v>50</v>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>[50.0]</t>
+        </is>
       </c>
     </row>
   </sheetData>
